--- a/FMSapi_test v1.0/FMS接口.xlsx
+++ b/FMSapi_test v1.0/FMS接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="140">
   <si>
     <t>功能</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>{"username":"admin","password":"admin"}</t>
+  </si>
+  <si>
+    <t>{"username":"test","password":"test123","role_id":"1","dashboard_id":"17","station":"","pinString":""}</t>
   </si>
 </sst>
 </file>
@@ -863,6 +866,12 @@
       <c r="C5" t="s">
         <v>89</v>
       </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">

--- a/FMSapi_test v1.0/FMS接口.xlsx
+++ b/FMSapi_test v1.0/FMS接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
   <si>
     <t>功能</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>/api/maps/{map_id}</t>
+  </si>
+  <si>
+    <t>/api/maps/1</t>
   </si>
   <si>
     <t>/api/maps/{map_id}/station</t>
@@ -828,10 +831,10 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -867,10 +870,10 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -994,7 +997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1134,10 +1137,13 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1156,10 +1162,10 @@
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1178,7 +1184,7 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1189,7 +1195,7 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1200,7 +1206,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1211,7 +1217,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1222,7 +1228,7 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1233,7 +1239,7 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1244,7 +1250,7 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1255,7 +1261,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1266,7 +1272,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1277,7 +1283,7 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1288,7 +1294,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1299,7 +1305,7 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1310,7 +1316,7 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1321,7 +1327,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1332,7 +1338,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1343,7 +1349,7 @@
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1354,7 +1360,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1365,7 +1371,7 @@
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1376,7 +1382,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1387,7 +1393,7 @@
         <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1398,7 +1404,7 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1409,7 +1415,7 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1420,7 +1426,7 @@
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1431,7 +1437,7 @@
         <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1442,7 +1448,7 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1453,7 +1459,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1464,7 +1470,7 @@
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1475,7 +1481,7 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1486,7 +1492,7 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1497,7 +1503,7 @@
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1508,7 +1514,7 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1519,7 +1525,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1530,7 +1536,7 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1541,7 +1547,7 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1552,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1563,7 +1569,7 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1574,7 +1580,7 @@
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1585,7 +1591,7 @@
         <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1596,7 +1602,7 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1607,7 +1613,7 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1618,7 +1624,7 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1629,7 +1635,7 @@
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1640,7 +1646,7 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1651,7 +1657,7 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1662,7 +1668,7 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1673,7 +1679,7 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1684,7 +1690,7 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/FMSapi_test v1.0/FMS接口.xlsx
+++ b/FMSapi_test v1.0/FMS接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
   <si>
     <t>功能</t>
   </si>
@@ -286,7 +286,10 @@
     <t>/api/users</t>
   </si>
   <si>
-    <t>/api/users/{user_id}</t>
+    <t>/api/users/58</t>
+  </si>
+  <si>
+    <t>/api/users/{randomnum3}</t>
   </si>
   <si>
     <t>/api/users/roles</t>
@@ -427,13 +430,16 @@
     <t>{"username":"admin","password":"admin"}</t>
   </si>
   <si>
-    <t>{"username":"test","password":"test123","role_id":"1","dashboard_id":"17","station":"","pinString":""}</t>
+    <t>{"username":"{randomstr}","password":"{randomnum}","role_id":"1","dashboard_id":"17","station":"","pinString":""}</t>
   </si>
   <si>
     <t>{"username":"tes1212121t","password":"121212","role_id":"2","dashboard_id":"","station":"","pin":""}</t>
   </si>
   <si>
-    <t>{"ip_addr":{ip},"nickname":"testtest4","mac_addr":""}</t>
+    <t>{"ip_addr":{randomip},"nickname":{randomstr},"mac_addr":""}</t>
+  </si>
+  <si>
+    <t>{"mission":[{"type":"move","destination":2,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":2,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":7,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0}],"id":"611575992632213504","upper_id":"","order_type":"NORMAL","priority":0,"is_appoint_enable":0,"appoint_vehicle_id":0,"appoint_execute_time":"1970-01-01 00:00:00","execute_time":"1970-01-01 00:00:00","execute_vehicle_id":0,"order_state":"QUEUEING","vehicle_type":1,"done_time":"1970-01-01 00:00:00","move_type":"TASK_MOVE_NONE","source":"FMS","shelf_id":"","act_height":0,"task_status":0,"start_station_name":"--","end_station_name":"--","is_active":1,"reason":"","distance":0,"eta":0,"executing_index":-1,"user_id":38,"template_id":0,"cargo_id":0,"create_time":"2019-08-15 15:04:39"}</t>
   </si>
 </sst>
 </file>
@@ -828,10 +834,10 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -867,10 +873,10 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -884,10 +890,10 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -898,10 +904,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -912,7 +918,7 @@
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -923,7 +929,7 @@
         <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -934,7 +940,7 @@
         <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -945,7 +951,7 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -956,13 +962,13 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -973,7 +979,7 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -984,7 +990,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1006,10 +1012,10 @@
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1017,10 +1023,10 @@
         <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1028,10 +1034,10 @@
         <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1039,10 +1045,10 @@
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1050,10 +1056,16 @@
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1061,10 +1073,10 @@
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1072,10 +1084,10 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1083,10 +1095,10 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1094,10 +1106,10 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1105,10 +1117,10 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1116,10 +1128,13 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1127,10 +1142,10 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1138,10 +1153,10 @@
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1149,13 +1164,13 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1163,10 +1178,10 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1174,10 +1189,10 @@
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1200,7 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1196,7 +1211,7 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1207,7 +1222,7 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1218,7 +1233,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1229,7 +1244,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1240,7 +1255,7 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1251,7 +1266,7 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1262,7 +1277,7 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1273,7 +1288,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1284,7 +1299,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1295,7 +1310,7 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1306,7 +1321,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1317,7 +1332,7 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1328,7 +1343,7 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1339,7 +1354,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1350,7 +1365,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1361,7 +1376,7 @@
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1372,7 +1387,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1383,7 +1398,7 @@
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1394,7 +1409,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1405,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1416,7 +1431,7 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1427,7 +1442,7 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1438,7 +1453,7 @@
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1449,7 +1464,7 @@
         <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1460,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1471,7 +1486,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1482,7 +1497,7 @@
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1493,7 +1508,7 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1504,7 +1519,7 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1515,7 +1530,7 @@
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1526,7 +1541,7 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1537,7 +1552,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1548,7 +1563,7 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1559,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1570,7 +1585,7 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1581,7 +1596,7 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1592,7 +1607,7 @@
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1603,7 +1618,7 @@
         <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1614,7 +1629,7 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1625,7 +1640,7 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1636,7 +1651,7 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1647,7 +1662,7 @@
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1658,7 +1673,7 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1669,7 +1684,7 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1680,7 +1695,7 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1691,7 +1706,7 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1702,7 +1717,7 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/FMSapi_test v1.0/FMS接口.xlsx
+++ b/FMSapi_test v1.0/FMS接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
   <si>
     <t>功能</t>
   </si>
@@ -301,6 +301,9 @@
     <t>/api/vehicles</t>
   </si>
   <si>
+    <t>/api/vehicles/{vehicles_id}</t>
+  </si>
+  <si>
     <t>/api/vehicles/{vehicle_id}</t>
   </si>
   <si>
@@ -436,7 +439,7 @@
     <t>{"username":"tes1212121t","password":"121212","role_id":"2","dashboard_id":"","station":"","pin":""}</t>
   </si>
   <si>
-    <t>{"ip_addr":{randomip},"nickname":{randomstr},"mac_addr":""}</t>
+    <t>{"ip_addr":"{randomip}","nickname":"{randomstr}","mac_addr":""}</t>
   </si>
   <si>
     <t>{"mission":[{"type":"move","destination":2,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":2,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":7,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0}],"id":"611575992632213504","upper_id":"","order_type":"NORMAL","priority":0,"is_appoint_enable":0,"appoint_vehicle_id":0,"appoint_execute_time":"1970-01-01 00:00:00","execute_time":"1970-01-01 00:00:00","execute_vehicle_id":0,"order_state":"QUEUEING","vehicle_type":1,"done_time":"1970-01-01 00:00:00","move_type":"TASK_MOVE_NONE","source":"FMS","shelf_id":"","act_height":0,"task_status":0,"start_station_name":"--","end_station_name":"--","is_active":1,"reason":"","distance":0,"eta":0,"executing_index":-1,"user_id":38,"template_id":0,"cargo_id":0,"create_time":"2019-08-15 15:04:39"}</t>
@@ -834,10 +837,10 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -873,10 +876,10 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -890,10 +893,10 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -907,7 +910,7 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -953,6 +956,9 @@
       <c r="C11" t="s">
         <v>95</v>
       </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -965,10 +971,10 @@
         <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -979,7 +985,7 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -990,7 +996,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1023,7 +1029,7 @@
         <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1034,7 +1040,7 @@
         <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1045,7 +1051,7 @@
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1056,13 +1062,13 @@
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1073,7 +1079,7 @@
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1106,7 +1112,7 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1117,7 +1123,7 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1128,10 +1134,10 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1142,7 +1148,7 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1159,7 @@
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,10 +1170,10 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1184,7 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1200,7 +1206,7 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1211,7 +1217,7 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1222,7 +1228,7 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1233,7 +1239,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1244,7 +1250,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1255,7 +1261,7 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1266,7 +1272,7 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1277,7 +1283,7 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1288,7 +1294,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1299,7 +1305,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1310,7 +1316,7 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1321,7 +1327,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1332,7 +1338,7 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1343,7 +1349,7 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1354,7 +1360,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1365,7 +1371,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1376,7 +1382,7 @@
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1387,7 +1393,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1398,7 +1404,7 @@
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1409,7 +1415,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1420,7 +1426,7 @@
         <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1431,7 +1437,7 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1442,7 +1448,7 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1453,7 +1459,7 @@
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1464,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1475,7 +1481,7 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1486,7 +1492,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1497,7 +1503,7 @@
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1508,7 +1514,7 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1519,7 +1525,7 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1530,7 +1536,7 @@
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1541,7 +1547,7 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1552,7 +1558,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1563,7 +1569,7 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1574,7 +1580,7 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1585,7 +1591,7 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1596,7 +1602,7 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1607,7 +1613,7 @@
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1618,7 +1624,7 @@
         <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1629,7 +1635,7 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1640,7 +1646,7 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1651,7 +1657,7 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1662,7 +1668,7 @@
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1673,7 +1679,7 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1684,7 +1690,7 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1695,7 +1701,7 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1706,7 +1712,7 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1717,7 +1723,7 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/FMSapi_test v1.0/FMS接口.xlsx
+++ b/FMSapi_test v1.0/FMS接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="143">
   <si>
     <t>功能</t>
   </si>
@@ -304,9 +304,6 @@
     <t>/api/vehicles/{vehicles_id}</t>
   </si>
   <si>
-    <t>/api/vehicles/{vehicle_id}</t>
-  </si>
-  <si>
     <t>/api/vehicles/discovery</t>
   </si>
   <si>
@@ -322,12 +319,15 @@
     <t>/api/orders</t>
   </si>
   <si>
+    <t>/api/orders/16</t>
+  </si>
+  <si>
+    <t>/api/orders/template/{order_template_id}</t>
+  </si>
+  <si>
     <t>/api/orders/{order_id}</t>
   </si>
   <si>
-    <t>/api/orders/template/{order_template_id}</t>
-  </si>
-  <si>
     <t>/api/order/{order_id}</t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t>/api/system/log/file</t>
   </si>
   <si>
-    <t>{"token":"ZGV2LDE1NjgxNjgzOTM1NDEsZWFmOTU1MTRkYTQyM2Y2MTE3OTRkYjg5MTUzMmFiNDY="}</t>
+    <t>{"cookie":"username=2|1:0|10:1565933869|8:username|4:ZGV2|1a8418e48b008340cf53d338f3085098f1349003a4a984c03b65e7280d47fc9e; userid='2|1:0|10:1565933869|6:userid|4:Mg==|c96070cf9ea41a922930b4d9340be76ab2e053634326689d4de847679d906ddc'"}</t>
   </si>
   <si>
     <t>{"username":"admin","password":"admin"}</t>
@@ -853,6 +853,9 @@
       <c r="C3" t="s">
         <v>88</v>
       </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -864,6 +867,9 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -923,6 +929,9 @@
       <c r="C8" t="s">
         <v>92</v>
       </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -934,6 +943,9 @@
       <c r="C9" t="s">
         <v>93</v>
       </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -945,6 +957,9 @@
       <c r="C10" t="s">
         <v>94</v>
       </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -985,7 +1000,10 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -996,7 +1014,10 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1007,7 +1028,10 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1018,7 +1042,10 @@
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1029,7 +1056,10 @@
         <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1040,7 +1070,10 @@
         <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1051,7 +1084,10 @@
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1062,7 +1098,7 @@
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>137</v>
@@ -1079,7 +1115,10 @@
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1090,7 +1129,10 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1101,7 +1143,10 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1114,6 +1159,9 @@
       <c r="C24" t="s">
         <v>104</v>
       </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -1125,6 +1173,9 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -1150,6 +1201,9 @@
       <c r="C27" t="s">
         <v>107</v>
       </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -1161,6 +1215,9 @@
       <c r="C28" t="s">
         <v>106</v>
       </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -1186,6 +1243,9 @@
       <c r="C30" t="s">
         <v>107</v>
       </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -1197,6 +1257,9 @@
       <c r="C31" t="s">
         <v>108</v>
       </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
@@ -1208,8 +1271,11 @@
       <c r="C32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1219,8 +1285,11 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1230,8 +1299,11 @@
       <c r="C34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1241,8 +1313,11 @@
       <c r="C35" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1252,8 +1327,11 @@
       <c r="C36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1263,8 +1341,11 @@
       <c r="C37" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1274,8 +1355,11 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1285,8 +1369,11 @@
       <c r="C39" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1296,8 +1383,11 @@
       <c r="C40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1307,8 +1397,11 @@
       <c r="C41" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1318,8 +1411,11 @@
       <c r="C42" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1329,8 +1425,11 @@
       <c r="C43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1340,8 +1439,11 @@
       <c r="C44" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1351,8 +1453,11 @@
       <c r="C45" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1362,8 +1467,11 @@
       <c r="C46" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1373,8 +1481,11 @@
       <c r="C47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1384,8 +1495,11 @@
       <c r="C48" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1395,8 +1509,11 @@
       <c r="C49" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1406,8 +1523,11 @@
       <c r="C50" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1417,8 +1537,11 @@
       <c r="C51" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1428,8 +1551,11 @@
       <c r="C52" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1439,8 +1565,11 @@
       <c r="C53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1450,8 +1579,11 @@
       <c r="C54" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1461,8 +1593,11 @@
       <c r="C55" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1472,8 +1607,11 @@
       <c r="C56" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1483,8 +1621,11 @@
       <c r="C57" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1494,8 +1635,11 @@
       <c r="C58" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1505,8 +1649,11 @@
       <c r="C59" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1516,8 +1663,11 @@
       <c r="C60" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1527,8 +1677,11 @@
       <c r="C61" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1538,8 +1691,11 @@
       <c r="C62" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1549,8 +1705,11 @@
       <c r="C63" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1560,8 +1719,11 @@
       <c r="C64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1571,8 +1733,11 @@
       <c r="C65" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1582,8 +1747,11 @@
       <c r="C66" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1593,8 +1761,11 @@
       <c r="C67" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -1604,8 +1775,11 @@
       <c r="C68" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1615,8 +1789,11 @@
       <c r="C69" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -1626,8 +1803,11 @@
       <c r="C70" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -1637,8 +1817,11 @@
       <c r="C71" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -1648,8 +1831,11 @@
       <c r="C72" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -1659,8 +1845,11 @@
       <c r="C73" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -1670,8 +1859,11 @@
       <c r="C74" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -1681,8 +1873,11 @@
       <c r="C75" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -1692,8 +1887,11 @@
       <c r="C76" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -1703,8 +1901,11 @@
       <c r="C77" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -1714,8 +1915,11 @@
       <c r="C78" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -1724,6 +1928,9 @@
       </c>
       <c r="C79" t="s">
         <v>136</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/FMSapi_test v1.0/FMS接口.xlsx
+++ b/FMSapi_test v1.0/FMS接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="154">
   <si>
     <t>功能</t>
   </si>
@@ -467,6 +467,15 @@
   </si>
   <si>
     <t>{"template_id":"{order_template_id}","ip_addr":"{randomip}","device":"{randomstr}"}</t>
+  </si>
+  <si>
+    <t>{"charger_id":133}</t>
+  </si>
+  <si>
+    <t>{"nickname":"{randomstr}"}</t>
+  </si>
+  <si>
+    <t>{"id":{randomnum3},"vehicle_type_li":"","station_no":"","enter_exit_station":"","map_id":"","nickname":""}</t>
   </si>
 </sst>
 </file>
@@ -1838,6 +1847,9 @@
       <c r="D68" t="s">
         <v>135</v>
       </c>
+      <c r="F68" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
@@ -1852,6 +1864,9 @@
       <c r="D69" t="s">
         <v>135</v>
       </c>
+      <c r="F69" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
@@ -1865,6 +1880,9 @@
       </c>
       <c r="D70" t="s">
         <v>135</v>
+      </c>
+      <c r="F70" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:6">
